--- a/downloaded_files/CMPS454_Tutorial-35559.xlsx
+++ b/downloaded_files/CMPS454_Tutorial-35559.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -202,6 +202,15 @@
   </x:si>
   <x:si>
     <x:t>Mohab Yasser Alsayed Salem Albahrawy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210313</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مهند طارق ابراهيم المحلاوى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohanad Tarek Ibrahim Elmahalawy</x:t>
   </x:si>
   <x:si>
     <x:t>1210316</x:t>
@@ -353,7 +362,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -653,7 +662,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1352,7 +1361,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.414388044</x:v>
+        <x:v>45921.9196888542</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1384,7 +1393,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4182658912</x:v>
+        <x:v>45906.414388044</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1416,7 +1425,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.5710977662</x:v>
+        <x:v>45906.4182658912</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1448,7 +1457,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45913.7654073727</x:v>
+        <x:v>45906.5710977662</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1465,6 +1474,38 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45913.7654073727</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS454_Tutorial-35559.xlsx
+++ b/downloaded_files/CMPS454_Tutorial-35559.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,6 +40,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Mohamed Ashry Bekhet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210044</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اسر تامر محمد وجدى محمد كامل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Asser Tamer Mohamed Wagdy</x:t>
   </x:si>
   <x:si>
     <x:t>1210048</x:t>
@@ -362,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -662,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -785,7 +794,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45913.5212633102</x:v>
+        <x:v>45924.9479451736</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -817,7 +826,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.4144362268</x:v>
+        <x:v>45913.5212633102</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -849,7 +858,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6643954514</x:v>
+        <x:v>45906.4144362268</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -881,7 +890,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.4143372338</x:v>
+        <x:v>45906.6643954514</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -913,7 +922,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4159910532</x:v>
+        <x:v>45906.4143372338</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -945,7 +954,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45913.7490788542</x:v>
+        <x:v>45906.4159910532</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -977,7 +986,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.1112114583</x:v>
+        <x:v>45913.7490788542</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1009,7 +1018,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.7149191782</x:v>
+        <x:v>45914.1112114583</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1041,7 +1050,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.4157364931</x:v>
+        <x:v>45914.7149191782</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1073,7 +1082,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4157335995</x:v>
+        <x:v>45909.4157364931</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1105,7 +1114,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6643790509</x:v>
+        <x:v>45906.4157335995</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1137,7 +1146,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6642594097</x:v>
+        <x:v>45906.6643790509</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1169,7 +1178,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.4156296643</x:v>
+        <x:v>45906.6642594097</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1201,7 +1210,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4185215625</x:v>
+        <x:v>45909.4156296643</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1233,7 +1242,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45906.4185215625</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1265,7 +1274,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4145865741</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1297,7 +1306,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45913.5197797454</x:v>
+        <x:v>45906.4145865741</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1329,7 +1338,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4190013079</x:v>
+        <x:v>45913.5197797454</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1361,7 +1370,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45921.9196888542</x:v>
+        <x:v>45906.4190013079</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1393,7 +1402,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.414388044</x:v>
+        <x:v>45921.9196888542</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1425,7 +1434,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4182658912</x:v>
+        <x:v>45906.414388044</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1457,7 +1466,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.5710977662</x:v>
+        <x:v>45906.4182658912</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1489,7 +1498,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45913.7654073727</x:v>
+        <x:v>45906.5710977662</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1506,6 +1515,38 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45913.7654073727</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS454_Tutorial-35559.xlsx
+++ b/downloaded_files/CMPS454_Tutorial-35559.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,15 +33,6 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>1210194</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمد عشري بخيت</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Mohamed Ashry Bekhet</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210044</x:t>
   </x:si>
   <x:si>
@@ -103,15 +94,6 @@
   </x:si>
   <x:si>
     <x:t>Aisha Tawfik Mahmoud Tawfik Esmat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210248</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن احمد محمد احمد محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Ahmed Mohamed Ahmed Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1210353</x:t>
@@ -371,7 +353,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -671,7 +653,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -762,7 +744,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.4314265856</x:v>
+        <x:v>45924.9479451736</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -794,7 +776,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45924.9479451736</x:v>
+        <x:v>45913.5212633102</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -826,7 +808,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45913.5212633102</x:v>
+        <x:v>45906.4144362268</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -858,7 +840,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.4144362268</x:v>
+        <x:v>45906.6643954514</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -890,7 +872,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6643954514</x:v>
+        <x:v>45906.4143372338</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -922,7 +904,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4143372338</x:v>
+        <x:v>45906.4159910532</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -954,7 +936,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4159910532</x:v>
+        <x:v>45913.7490788542</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -986,7 +968,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45913.7490788542</x:v>
+        <x:v>45914.7149191782</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1018,7 +1000,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.1112114583</x:v>
+        <x:v>45909.4157364931</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1050,7 +1032,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.7149191782</x:v>
+        <x:v>45906.4157335995</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1082,7 +1064,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4157364931</x:v>
+        <x:v>45906.6643790509</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1114,7 +1096,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4157335995</x:v>
+        <x:v>45906.6642594097</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1146,7 +1128,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6643790509</x:v>
+        <x:v>45909.4156296643</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1178,7 +1160,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6642594097</x:v>
+        <x:v>45906.4185215625</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1210,7 +1192,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.4156296643</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1242,7 +1224,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4185215625</x:v>
+        <x:v>45906.4145865741</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1274,7 +1256,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45913.5197797454</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1306,7 +1288,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4145865741</x:v>
+        <x:v>45906.4190013079</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1338,7 +1320,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45913.5197797454</x:v>
+        <x:v>45921.9196888542</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1370,7 +1352,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4190013079</x:v>
+        <x:v>45906.414388044</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1402,7 +1384,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45921.9196888542</x:v>
+        <x:v>45906.4182658912</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1434,7 +1416,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.414388044</x:v>
+        <x:v>45906.5710977662</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1466,7 +1448,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4182658912</x:v>
+        <x:v>45913.7654073727</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1483,70 +1465,6 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:20">
-      <x:c r="A25" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="E25" s="3">
-        <x:v>45906.5710977662</x:v>
-      </x:c>
-      <x:c r="F25" s="2" t="s"/>
-      <x:c r="G25" s="2" t="s"/>
-      <x:c r="H25" s="2" t="s"/>
-      <x:c r="I25" s="2" t="s"/>
-      <x:c r="J25" s="2" t="s"/>
-      <x:c r="K25" s="2" t="s"/>
-      <x:c r="L25" s="2" t="s"/>
-      <x:c r="M25" s="2" t="s"/>
-      <x:c r="N25" s="2" t="s"/>
-      <x:c r="O25" s="2" t="s"/>
-      <x:c r="P25" s="2" t="s"/>
-      <x:c r="Q25" s="2" t="s"/>
-      <x:c r="R25" s="2" t="s"/>
-      <x:c r="S25" s="2" t="s"/>
-      <x:c r="T25" s="2" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:20">
-      <x:c r="A26" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B26" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E26" s="3">
-        <x:v>45913.7654073727</x:v>
-      </x:c>
-      <x:c r="F26" s="2" t="s"/>
-      <x:c r="G26" s="2" t="s"/>
-      <x:c r="H26" s="2" t="s"/>
-      <x:c r="I26" s="2" t="s"/>
-      <x:c r="J26" s="2" t="s"/>
-      <x:c r="K26" s="2" t="s"/>
-      <x:c r="L26" s="2" t="s"/>
-      <x:c r="M26" s="2" t="s"/>
-      <x:c r="N26" s="2" t="s"/>
-      <x:c r="O26" s="2" t="s"/>
-      <x:c r="P26" s="2" t="s"/>
-      <x:c r="Q26" s="2" t="s"/>
-      <x:c r="R26" s="2" t="s"/>
-      <x:c r="S26" s="2" t="s"/>
-      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS454_Tutorial-35559.xlsx
+++ b/downloaded_files/CMPS454_Tutorial-35559.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -211,15 +211,6 @@
   </x:si>
   <x:si>
     <x:t>Noor Ahmed Mostafa Ahmed AlHadidi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210319</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نور نادر محمد الحسينى سيد خليل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nour Nader Mohamed Elhusseiny Sayed Khalil</x:t>
   </x:si>
   <x:si>
     <x:t>1210334</x:t>
@@ -353,7 +344,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -653,7 +644,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1384,7 +1375,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4182658912</x:v>
+        <x:v>45906.5710977662</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1416,7 +1407,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.5710977662</x:v>
+        <x:v>45913.7654073727</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1433,38 +1424,6 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:20">
-      <x:c r="A24" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="E24" s="3">
-        <x:v>45913.7654073727</x:v>
-      </x:c>
-      <x:c r="F24" s="2" t="s"/>
-      <x:c r="G24" s="2" t="s"/>
-      <x:c r="H24" s="2" t="s"/>
-      <x:c r="I24" s="2" t="s"/>
-      <x:c r="J24" s="2" t="s"/>
-      <x:c r="K24" s="2" t="s"/>
-      <x:c r="L24" s="2" t="s"/>
-      <x:c r="M24" s="2" t="s"/>
-      <x:c r="N24" s="2" t="s"/>
-      <x:c r="O24" s="2" t="s"/>
-      <x:c r="P24" s="2" t="s"/>
-      <x:c r="Q24" s="2" t="s"/>
-      <x:c r="R24" s="2" t="s"/>
-      <x:c r="S24" s="2" t="s"/>
-      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS454_Tutorial-35559.xlsx
+++ b/downloaded_files/CMPS454_Tutorial-35559.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -94,6 +94,15 @@
   </x:si>
   <x:si>
     <x:t>Aisha Tawfik Mahmoud Tawfik Esmat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن اشرف محمود احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Ashraf Mahmoud Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1210353</x:t>
@@ -344,7 +353,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -644,7 +653,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -959,7 +968,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.7149191782</x:v>
+        <x:v>45928.9520469907</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -991,7 +1000,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.4157364931</x:v>
+        <x:v>45914.7149191782</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1023,7 +1032,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4157335995</x:v>
+        <x:v>45909.4157364931</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1055,7 +1064,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6643790509</x:v>
+        <x:v>45906.4157335995</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1087,7 +1096,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6642594097</x:v>
+        <x:v>45906.6643790509</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1119,7 +1128,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.4156296643</x:v>
+        <x:v>45906.6642594097</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1151,7 +1160,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4185215625</x:v>
+        <x:v>45909.4156296643</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1183,7 +1192,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45906.4185215625</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1215,7 +1224,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4145865741</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1247,7 +1256,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45913.5197797454</x:v>
+        <x:v>45906.4145865741</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1279,7 +1288,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4190013079</x:v>
+        <x:v>45913.5197797454</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1311,7 +1320,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45921.9196888542</x:v>
+        <x:v>45906.4190013079</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1343,7 +1352,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.414388044</x:v>
+        <x:v>45921.9196888542</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1375,7 +1384,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.5710977662</x:v>
+        <x:v>45906.414388044</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1407,7 +1416,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45913.7654073727</x:v>
+        <x:v>45906.5710977662</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1424,6 +1433,38 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45913.7654073727</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS454_Tutorial-35559.xlsx
+++ b/downloaded_files/CMPS454_Tutorial-35559.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -202,15 +202,6 @@
   </x:si>
   <x:si>
     <x:t>Mohab Yasser Alsayed Salem Albahrawy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210313</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مهند طارق ابراهيم المحلاوى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohanad Tarek Ibrahim Elmahalawy</x:t>
   </x:si>
   <x:si>
     <x:t>1210316</x:t>
@@ -353,7 +344,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -653,7 +644,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1352,7 +1343,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45921.9196888542</x:v>
+        <x:v>45906.414388044</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1384,7 +1375,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.414388044</x:v>
+        <x:v>45906.5710977662</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1416,7 +1407,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.5710977662</x:v>
+        <x:v>45913.7654073727</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1433,38 +1424,6 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:20">
-      <x:c r="A24" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="E24" s="3">
-        <x:v>45913.7654073727</x:v>
-      </x:c>
-      <x:c r="F24" s="2" t="s"/>
-      <x:c r="G24" s="2" t="s"/>
-      <x:c r="H24" s="2" t="s"/>
-      <x:c r="I24" s="2" t="s"/>
-      <x:c r="J24" s="2" t="s"/>
-      <x:c r="K24" s="2" t="s"/>
-      <x:c r="L24" s="2" t="s"/>
-      <x:c r="M24" s="2" t="s"/>
-      <x:c r="N24" s="2" t="s"/>
-      <x:c r="O24" s="2" t="s"/>
-      <x:c r="P24" s="2" t="s"/>
-      <x:c r="Q24" s="2" t="s"/>
-      <x:c r="R24" s="2" t="s"/>
-      <x:c r="S24" s="2" t="s"/>
-      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS454_Tutorial-35559.xlsx
+++ b/downloaded_files/CMPS454_Tutorial-35559.xlsx
@@ -147,7 +147,7 @@
     <x:t>لؤى احمد كمال عبدالغفار عثمان</x:t>
   </x:si>
   <x:si>
-    <x:t>Loay Ahmed Kamal Abdul Ghaffar Othman</x:t>
+    <x:t>Loay Ahmed Kamal Abdelghafar Othman</x:t>
   </x:si>
   <x:si>
     <x:t>1210375</x:t>
